--- a/APF/QA/RA006/QAP001_APF_RA006_APF0505_人員組織主檔資料查詢.xlsx
+++ b/APF/QA/RA006/QAP001_APF_RA006_APF0505_人員組織主檔資料查詢.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Suda3g\APF\QA\RA006\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1395" yWindow="270" windowWidth="10920" windowHeight="5610" tabRatio="549" activeTab="2"/>
+    <workbookView xWindow="1395" yWindow="270" windowWidth="10920" windowHeight="5610" tabRatio="549" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="修訂履歷" sheetId="5" r:id="rId1"/>
@@ -29,7 +24,7 @@
     <definedName name="原因分類">備註說明!$D$2:$D$8</definedName>
     <definedName name="植入Bug來源">備註說明!$A$2:$A$19</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -40,7 +35,7 @@
     <author>AA</author>
   </authors>
   <commentList>
-    <comment ref="F6" authorId="0" shapeId="0">
+    <comment ref="F6" authorId="0">
       <text>
         <r>
           <rPr>
@@ -55,7 +50,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J6" authorId="0" shapeId="0">
+    <comment ref="J6" authorId="0">
       <text>
         <r>
           <rPr>
@@ -70,7 +65,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K6" authorId="0" shapeId="0">
+    <comment ref="K6" authorId="0">
       <text>
         <r>
           <rPr>
@@ -85,7 +80,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L6" authorId="0" shapeId="0">
+    <comment ref="L6" authorId="0">
       <text>
         <r>
           <rPr>
@@ -100,7 +95,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q6" authorId="1" shapeId="0">
+    <comment ref="Q6" authorId="1">
       <text>
         <r>
           <rPr>
@@ -125,7 +120,7 @@
     <author>AA</author>
   </authors>
   <commentList>
-    <comment ref="A2" authorId="0" shapeId="0">
+    <comment ref="A2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -155,7 +150,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="938" uniqueCount="399">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="934" uniqueCount="398">
   <si>
     <t>檢視面向</t>
     <phoneticPr fontId="20" type="noConversion"/>
@@ -2381,12 +2376,6 @@
     <t>再Review</t>
   </si>
   <si>
-    <t>SA PM</t>
-  </si>
-  <si>
-    <t>SA PM-1</t>
-  </si>
-  <si>
     <t>1</t>
     <phoneticPr fontId="23" type="noConversion"/>
   </si>
@@ -2395,14 +2384,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>陳懿信</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>懿信</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
     <t>2</t>
     <phoneticPr fontId="23" type="noConversion"/>
   </si>
@@ -2430,9 +2411,6 @@
     <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
-    <t>設計miss</t>
-  </si>
-  <si>
     <t>3</t>
     <phoneticPr fontId="23" type="noConversion"/>
   </si>
@@ -2451,6 +2429,20 @@
   <si>
     <t>已經以API格式完成所有API Sheet修改</t>
     <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>林傳勝</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>傳勝</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>SD PM</t>
+  </si>
+  <si>
+    <t>SD PM-1</t>
   </si>
 </sst>
 </file>
@@ -3929,13 +3921,13 @@
     <cellStyle name="輔色4" xfId="33" builtinId="41" customBuiltin="1"/>
     <cellStyle name="輔色5" xfId="34" builtinId="45" customBuiltin="1"/>
     <cellStyle name="輔色6" xfId="35" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="樣式 1" xfId="42"/>
     <cellStyle name="標準_障害" xfId="36"/>
     <cellStyle name="標題" xfId="37" builtinId="15" customBuiltin="1"/>
     <cellStyle name="標題 1" xfId="38" builtinId="16" customBuiltin="1"/>
     <cellStyle name="標題 2" xfId="39" builtinId="17" customBuiltin="1"/>
     <cellStyle name="標題 3" xfId="40" builtinId="18" customBuiltin="1"/>
     <cellStyle name="標題 4" xfId="41" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="樣式 1" xfId="42"/>
     <cellStyle name="輸入" xfId="43" builtinId="20" customBuiltin="1"/>
     <cellStyle name="輸出" xfId="44" builtinId="21" customBuiltin="1"/>
     <cellStyle name="檢查儲存格" xfId="45" builtinId="23" customBuiltin="1"/>
@@ -4035,7 +4027,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4070,7 +4062,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4545,11 +4537,11 @@
   </sheetPr>
   <dimension ref="A1:T71"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
       <pane xSplit="2" ySplit="6" topLeftCell="C7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="H11" sqref="H11"/>
+      <selection pane="bottomRight" activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -4682,7 +4674,7 @@
       </c>
       <c r="D5" s="108">
         <f>SUM($M$7:$M$27)</f>
-        <v>15.333333333333332</v>
+        <v>4.0000000000000071</v>
       </c>
       <c r="E5" s="99">
         <f>SUM($J$7:$J$27)</f>
@@ -4769,7 +4761,7 @@
     </row>
     <row r="7" spans="1:20" s="55" customFormat="1" ht="16.5">
       <c r="A7" s="64" t="s">
-        <v>380</v>
+        <v>396</v>
       </c>
       <c r="B7" s="1">
         <v>1</v>
@@ -4778,35 +4770,35 @@
         <v>379</v>
       </c>
       <c r="D7" s="140" t="s">
-        <v>384</v>
+        <v>394</v>
       </c>
       <c r="E7" s="66">
         <v>41603</v>
       </c>
       <c r="F7" s="140" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="G7" s="66">
         <v>41600</v>
       </c>
       <c r="H7" s="67">
-        <v>0.56944444444444442</v>
+        <v>0.60416666666666663</v>
       </c>
       <c r="I7" s="67">
-        <v>0.72916666666666663</v>
+        <v>0.64583333333333337</v>
       </c>
       <c r="J7" s="65">
         <v>4</v>
       </c>
       <c r="K7" s="68" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="L7" s="69" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="M7" s="70">
         <f>IF(C7="","",J7*(I7-H7)*24)</f>
-        <v>15.333333333333332</v>
+        <v>4.0000000000000071</v>
       </c>
       <c r="N7" s="63">
         <f>IF(C7="","",COUNTIF(改善明細!A:A,Q7))</f>
@@ -4818,11 +4810,11 @@
       </c>
       <c r="P7" s="71" t="str">
         <f t="shared" ref="P7" si="0">IF(Q7="","",LEFT(Q7,FIND("-",Q7)-1))</f>
-        <v>SA PM</v>
+        <v>SD PM</v>
       </c>
       <c r="Q7" s="71" t="str">
         <f>IF(OR(A7="",B7=""),"",A7&amp;"-"&amp;B7)</f>
-        <v>SA PM-1</v>
+        <v>SD PM-1</v>
       </c>
       <c r="R7" s="72"/>
     </row>
@@ -5789,11 +5781,11 @@
   </sheetPr>
   <dimension ref="A1:R113"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G7" sqref="G7"/>
+      <selection pane="bottomRight" activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="31.15" customHeight="1"/>
@@ -5888,26 +5880,24 @@
     </row>
     <row r="3" spans="1:18" s="23" customFormat="1" ht="44.25" customHeight="1">
       <c r="A3" s="40" t="s">
-        <v>381</v>
+        <v>397</v>
       </c>
       <c r="B3" s="41" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="C3" s="42" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="D3" s="43" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="E3" s="45" t="s">
-        <v>385</v>
+        <v>395</v>
       </c>
       <c r="F3" s="46" t="s">
-        <v>387</v>
-      </c>
-      <c r="G3" s="44" t="s">
-        <v>393</v>
-      </c>
+        <v>383</v>
+      </c>
+      <c r="G3" s="44"/>
       <c r="H3" s="91">
         <v>41603</v>
       </c>
@@ -5915,16 +5905,16 @@
         <v>41603</v>
       </c>
       <c r="J3" s="89" t="str">
-        <f t="shared" ref="J3:J8" si="0">IF(I3="","","V")</f>
+        <f t="shared" ref="J3:J6" si="0">IF(I3="","","V")</f>
         <v>V</v>
       </c>
       <c r="K3" s="89" t="str">
-        <f t="shared" ref="K3:K8" si="1">IF(OR(J3&lt;&gt;"",C3=""),"","V")</f>
+        <f t="shared" ref="K3:K4" si="1">IF(OR(J3&lt;&gt;"",C3=""),"","V")</f>
         <v/>
       </c>
       <c r="L3" s="90" t="str">
         <f t="shared" ref="L3:L8" si="2">IF(A3="","",LEFT(A3,FIND("-",A3)-1))</f>
-        <v>SA PM</v>
+        <v>SD PM</v>
       </c>
       <c r="M3" s="90"/>
       <c r="N3" s="36"/>
@@ -5933,26 +5923,24 @@
     </row>
     <row r="4" spans="1:18" s="23" customFormat="1" ht="64.150000000000006" customHeight="1">
       <c r="A4" s="40" t="s">
-        <v>381</v>
+        <v>397</v>
       </c>
       <c r="B4" s="41" t="s">
+        <v>382</v>
+      </c>
+      <c r="C4" s="42" t="s">
         <v>386</v>
       </c>
-      <c r="C4" s="42" t="s">
-        <v>390</v>
-      </c>
       <c r="D4" s="43" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="E4" s="45" t="s">
-        <v>385</v>
+        <v>395</v>
       </c>
       <c r="F4" s="46" t="s">
-        <v>387</v>
-      </c>
-      <c r="G4" s="44" t="s">
-        <v>393</v>
-      </c>
+        <v>383</v>
+      </c>
+      <c r="G4" s="44"/>
       <c r="H4" s="91">
         <v>41603</v>
       </c>
@@ -5969,7 +5957,7 @@
       </c>
       <c r="L4" s="90" t="str">
         <f t="shared" si="2"/>
-        <v>SA PM</v>
+        <v>SD PM</v>
       </c>
       <c r="M4" s="90"/>
       <c r="N4" s="36"/>
@@ -5978,26 +5966,24 @@
     </row>
     <row r="5" spans="1:18" s="23" customFormat="1" ht="63" customHeight="1">
       <c r="A5" s="40" t="s">
-        <v>381</v>
+        <v>397</v>
       </c>
       <c r="B5" s="41" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="C5" s="42" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="D5" s="43" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="E5" s="45" t="s">
-        <v>385</v>
+        <v>395</v>
       </c>
       <c r="F5" s="46" t="s">
-        <v>387</v>
-      </c>
-      <c r="G5" s="44" t="s">
-        <v>393</v>
-      </c>
+        <v>383</v>
+      </c>
+      <c r="G5" s="44"/>
       <c r="H5" s="91">
         <v>41603</v>
       </c>
@@ -6011,7 +5997,7 @@
       <c r="K5" s="89"/>
       <c r="L5" s="90" t="str">
         <f t="shared" si="2"/>
-        <v>SA PM</v>
+        <v>SD PM</v>
       </c>
       <c r="M5" s="90"/>
       <c r="N5" s="36"/>
@@ -6020,26 +6006,24 @@
     </row>
     <row r="6" spans="1:18" s="23" customFormat="1" ht="33">
       <c r="A6" s="40" t="s">
-        <v>381</v>
+        <v>397</v>
       </c>
       <c r="B6" s="41" t="s">
+        <v>390</v>
+      </c>
+      <c r="C6" s="42" t="s">
+        <v>392</v>
+      </c>
+      <c r="D6" s="43" t="s">
+        <v>393</v>
+      </c>
+      <c r="E6" s="45" t="s">
         <v>395</v>
       </c>
-      <c r="C6" s="42" t="s">
-        <v>397</v>
-      </c>
-      <c r="D6" s="43" t="s">
-        <v>398</v>
-      </c>
-      <c r="E6" s="45" t="s">
-        <v>385</v>
-      </c>
       <c r="F6" s="46" t="s">
-        <v>387</v>
-      </c>
-      <c r="G6" s="44" t="s">
-        <v>393</v>
-      </c>
+        <v>383</v>
+      </c>
+      <c r="G6" s="44"/>
       <c r="H6" s="91">
         <v>41603</v>
       </c>
@@ -6053,7 +6037,7 @@
       <c r="K6" s="89"/>
       <c r="L6" s="90" t="str">
         <f t="shared" si="2"/>
-        <v>SA PM</v>
+        <v>SD PM</v>
       </c>
       <c r="M6" s="90"/>
       <c r="N6" s="36"/>

--- a/APF/QA/RA006/QAP001_APF_RA006_APF0505_人員組織主檔資料查詢.xlsx
+++ b/APF/QA/RA006/QAP001_APF_RA006_APF0505_人員組織主檔資料查詢.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Suda3g\APF\QA\RA006\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="1395" yWindow="270" windowWidth="10920" windowHeight="5610" tabRatio="549" activeTab="1"/>
   </bookViews>
@@ -24,7 +29,7 @@
     <definedName name="原因分類">備註說明!$D$2:$D$8</definedName>
     <definedName name="植入Bug來源">備註說明!$A$2:$A$19</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -35,7 +40,7 @@
     <author>AA</author>
   </authors>
   <commentList>
-    <comment ref="F6" authorId="0">
+    <comment ref="F6" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -50,7 +55,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J6" authorId="0">
+    <comment ref="J6" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -65,7 +70,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K6" authorId="0">
+    <comment ref="K6" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -80,7 +85,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L6" authorId="0">
+    <comment ref="L6" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -95,7 +100,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q6" authorId="1">
+    <comment ref="Q6" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -120,7 +125,7 @@
     <author>AA</author>
   </authors>
   <commentList>
-    <comment ref="A2" authorId="0">
+    <comment ref="A2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -150,7 +155,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="934" uniqueCount="398">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="940" uniqueCount="403">
   <si>
     <t>檢視面向</t>
     <phoneticPr fontId="20" type="noConversion"/>
@@ -2388,9 +2393,6 @@
     <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
-    <t>功能分析</t>
-  </si>
-  <si>
     <t>懿信、傳勝、鈺杰、慕霖</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -2443,6 +2445,28 @@
   </si>
   <si>
     <t>SD PM-1</t>
+  </si>
+  <si>
+    <t>功能設計</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>陳懿信</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>陳慕霖</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>懿信、英杰、鈺杰、慕霖</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>慕霖</t>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -3921,13 +3945,13 @@
     <cellStyle name="輔色4" xfId="33" builtinId="41" customBuiltin="1"/>
     <cellStyle name="輔色5" xfId="34" builtinId="45" customBuiltin="1"/>
     <cellStyle name="輔色6" xfId="35" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="樣式 1" xfId="42"/>
     <cellStyle name="標準_障害" xfId="36"/>
     <cellStyle name="標題" xfId="37" builtinId="15" customBuiltin="1"/>
     <cellStyle name="標題 1" xfId="38" builtinId="16" customBuiltin="1"/>
     <cellStyle name="標題 2" xfId="39" builtinId="17" customBuiltin="1"/>
     <cellStyle name="標題 3" xfId="40" builtinId="18" customBuiltin="1"/>
     <cellStyle name="標題 4" xfId="41" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="樣式 1" xfId="42"/>
     <cellStyle name="輸入" xfId="43" builtinId="20" customBuiltin="1"/>
     <cellStyle name="輸出" xfId="44" builtinId="21" customBuiltin="1"/>
     <cellStyle name="檢查儲存格" xfId="45" builtinId="23" customBuiltin="1"/>
@@ -4027,7 +4051,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4062,7 +4086,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4541,7 +4565,7 @@
       <pane xSplit="2" ySplit="6" topLeftCell="C7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="A7" sqref="A7"/>
+      <selection pane="bottomRight" activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -4670,7 +4694,7 @@
       </c>
       <c r="C5" s="99">
         <f>COUNTIF($C$7:$C$27,"&gt;""")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D5" s="108">
         <f>SUM($M$7:$M$27)</f>
@@ -4678,7 +4702,7 @@
       </c>
       <c r="E5" s="99">
         <f>SUM($J$7:$J$27)</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F5" s="109">
         <f>SUM($N$7:$N$27)</f>
@@ -4761,7 +4785,7 @@
     </row>
     <row r="7" spans="1:20" s="55" customFormat="1" ht="16.5">
       <c r="A7" s="64" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B7" s="1">
         <v>1</v>
@@ -4770,7 +4794,7 @@
         <v>379</v>
       </c>
       <c r="D7" s="140" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E7" s="66">
         <v>41603</v>
@@ -4791,10 +4815,10 @@
         <v>4</v>
       </c>
       <c r="K7" s="68" t="s">
+        <v>383</v>
+      </c>
+      <c r="L7" s="69" t="s">
         <v>384</v>
-      </c>
-      <c r="L7" s="69" t="s">
-        <v>385</v>
       </c>
       <c r="M7" s="70">
         <f>IF(C7="","",J7*(I7-H7)*24)</f>
@@ -4819,28 +4843,52 @@
       <c r="R7" s="72"/>
     </row>
     <row r="8" spans="1:20" s="55" customFormat="1" ht="16.5">
-      <c r="A8" s="64"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="65"/>
-      <c r="D8" s="140"/>
-      <c r="E8" s="66"/>
-      <c r="F8" s="140"/>
-      <c r="G8" s="66"/>
-      <c r="H8" s="67"/>
-      <c r="I8" s="67"/>
-      <c r="J8" s="65"/>
-      <c r="K8" s="68"/>
-      <c r="L8" s="69"/>
+      <c r="A8" s="64" t="s">
+        <v>395</v>
+      </c>
+      <c r="B8" s="1">
+        <v>2</v>
+      </c>
+      <c r="C8" s="65" t="s">
+        <v>398</v>
+      </c>
+      <c r="D8" s="140" t="s">
+        <v>399</v>
+      </c>
+      <c r="E8" s="66">
+        <v>41610</v>
+      </c>
+      <c r="F8" s="140" t="s">
+        <v>400</v>
+      </c>
+      <c r="G8" s="66">
+        <v>41610</v>
+      </c>
+      <c r="H8" s="67">
+        <v>0.5625</v>
+      </c>
+      <c r="I8" s="67">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="J8" s="65">
+        <v>4</v>
+      </c>
+      <c r="K8" s="68" t="s">
+        <v>401</v>
+      </c>
+      <c r="L8" s="69" t="s">
+        <v>402</v>
+      </c>
       <c r="M8" s="70"/>
       <c r="N8" s="63"/>
       <c r="O8" s="63"/>
       <c r="P8" s="71" t="str">
         <f t="shared" ref="P8" si="1">IF(Q8="","",LEFT(Q8,FIND("-",Q8)-1))</f>
-        <v/>
+        <v>SD PM</v>
       </c>
       <c r="Q8" s="71" t="str">
         <f>IF(OR(A8="",B8=""),"",A8&amp;"-"&amp;B8)</f>
-        <v/>
+        <v>SD PM-2</v>
       </c>
       <c r="R8" s="72"/>
     </row>
@@ -5785,7 +5833,7 @@
       <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A8" sqref="A8"/>
+      <selection pane="bottomRight" activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="31.15" customHeight="1"/>
@@ -5880,22 +5928,22 @@
     </row>
     <row r="3" spans="1:18" s="23" customFormat="1" ht="44.25" customHeight="1">
       <c r="A3" s="40" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B3" s="41" t="s">
         <v>380</v>
       </c>
       <c r="C3" s="42" t="s">
+        <v>385</v>
+      </c>
+      <c r="D3" s="43" t="s">
         <v>386</v>
       </c>
-      <c r="D3" s="43" t="s">
-        <v>387</v>
-      </c>
       <c r="E3" s="45" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="F3" s="46" t="s">
-        <v>383</v>
+        <v>397</v>
       </c>
       <c r="G3" s="44"/>
       <c r="H3" s="91">
@@ -5923,22 +5971,22 @@
     </row>
     <row r="4" spans="1:18" s="23" customFormat="1" ht="64.150000000000006" customHeight="1">
       <c r="A4" s="40" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B4" s="41" t="s">
         <v>382</v>
       </c>
       <c r="C4" s="42" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D4" s="43" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E4" s="45" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="F4" s="46" t="s">
-        <v>383</v>
+        <v>397</v>
       </c>
       <c r="G4" s="44"/>
       <c r="H4" s="91">
@@ -5966,22 +6014,22 @@
     </row>
     <row r="5" spans="1:18" s="23" customFormat="1" ht="63" customHeight="1">
       <c r="A5" s="40" t="s">
+        <v>396</v>
+      </c>
+      <c r="B5" s="41" t="s">
+        <v>388</v>
+      </c>
+      <c r="C5" s="42" t="s">
+        <v>385</v>
+      </c>
+      <c r="D5" s="43" t="s">
+        <v>390</v>
+      </c>
+      <c r="E5" s="45" t="s">
+        <v>394</v>
+      </c>
+      <c r="F5" s="46" t="s">
         <v>397</v>
-      </c>
-      <c r="B5" s="41" t="s">
-        <v>389</v>
-      </c>
-      <c r="C5" s="42" t="s">
-        <v>386</v>
-      </c>
-      <c r="D5" s="43" t="s">
-        <v>391</v>
-      </c>
-      <c r="E5" s="45" t="s">
-        <v>395</v>
-      </c>
-      <c r="F5" s="46" t="s">
-        <v>383</v>
       </c>
       <c r="G5" s="44"/>
       <c r="H5" s="91">
@@ -6006,22 +6054,22 @@
     </row>
     <row r="6" spans="1:18" s="23" customFormat="1" ht="33">
       <c r="A6" s="40" t="s">
+        <v>396</v>
+      </c>
+      <c r="B6" s="41" t="s">
+        <v>389</v>
+      </c>
+      <c r="C6" s="42" t="s">
+        <v>391</v>
+      </c>
+      <c r="D6" s="43" t="s">
+        <v>392</v>
+      </c>
+      <c r="E6" s="45" t="s">
+        <v>394</v>
+      </c>
+      <c r="F6" s="46" t="s">
         <v>397</v>
-      </c>
-      <c r="B6" s="41" t="s">
-        <v>390</v>
-      </c>
-      <c r="C6" s="42" t="s">
-        <v>392</v>
-      </c>
-      <c r="D6" s="43" t="s">
-        <v>393</v>
-      </c>
-      <c r="E6" s="45" t="s">
-        <v>395</v>
-      </c>
-      <c r="F6" s="46" t="s">
-        <v>383</v>
       </c>
       <c r="G6" s="44"/>
       <c r="H6" s="91">

--- a/APF/QA/RA006/QAP001_APF_RA006_APF0505_人員組織主檔資料查詢.xlsx
+++ b/APF/QA/RA006/QAP001_APF_RA006_APF0505_人員組織主檔資料查詢.xlsx
@@ -4565,7 +4565,7 @@
       <pane xSplit="2" ySplit="6" topLeftCell="C7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="L12" sqref="L12"/>
+      <selection pane="bottomRight" activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -4856,13 +4856,13 @@
         <v>399</v>
       </c>
       <c r="E8" s="66">
-        <v>41610</v>
+        <v>41617</v>
       </c>
       <c r="F8" s="140" t="s">
         <v>400</v>
       </c>
       <c r="G8" s="66">
-        <v>41610</v>
+        <v>41617</v>
       </c>
       <c r="H8" s="67">
         <v>0.5625</v>
